--- a/data/combined data/combined data - 1 cleaning/cleaning step 4 - career/4.2 career_divided_unparsed_uncoded/career_award_unparsed_uncoded.xlsx
+++ b/data/combined data/combined data - 1 cleaning/cleaning step 4 - career/4.2 career_divided_unparsed_uncoded/career_award_unparsed_uncoded.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B148"/>
+  <dimension ref="A1:C187"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,6 +441,11 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>CareerDateString_2022</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>CareerStringID</t>
         </is>
       </c>
@@ -453,6 +458,11 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>2002.03</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>22</t>
         </is>
       </c>
@@ -460,454 +470,512 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1953. 2 ‘원수’ 칭호</t>
+          <t>&amp;lt;김일성 훈장&amp;gt; 수훈</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>1992.04</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>23</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1953. 8 ‘영웅’ 칭호</t>
+          <t>&amp;lt;김일성 훈장&amp;gt; 수훈</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>146</t>
+          <t>2004.07</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>24</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>1957. ‘공훈예술가’ 칭호</t>
+          <t>&amp;lt;김일성 훈장&amp;gt; 수훈</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>1987.04</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>25</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>1958. 9 국기훈장 제1급 수훈</t>
+          <t>&amp;lt;김일성 훈장&amp;gt; 수훈</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>2003.04</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>26</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>1958. 9 국기훈장 제1급 수훈</t>
+          <t>&amp;lt;김일성 훈장&amp;gt; 수훈</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>206</t>
+          <t>2002.04</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>27</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>1968. 2 ‘영웅’ 칭호</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>347</t>
+          <t>1953. 2 ‘원수’ 칭호</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>151</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>1968. 9 ‘영웅’ 칭호</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>357</t>
+          <t>1953. 8 ‘영웅’ 칭호</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>152</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>1970.10 인민군 중장, ‘영웅’ 칭호</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>407</t>
+          <t>1957. ‘공훈예술가’ 칭호</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>203</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>1972.12 최고인민회의 제5기 대의원, ‘영웅’ 칭호</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>487</t>
+          <t>1958. 9 국기훈장 제1급 수훈</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>210</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>1974. 9 ‘노력영웅’ 칭호</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>544</t>
+          <t>1958. 9 국기훈장 제1급 수훈</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>212</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>1975. 2 ‘영웅’ 칭호</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>558</t>
+          <t>1968. 2 ‘영웅’ 칭호</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>353</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>1976. 1 ‘영웅’ 칭호</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>584</t>
+          <t>1968. 9 ‘영웅’ 칭호</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>363</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>1979. 5 노력훈장 수훈</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>667</t>
+          <t>1970.10 인민군 중장, ‘영웅’ 칭호</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>413</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>1980. 2 ‘인민예술가’ 칭호, 피바다극단 총장</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>684</t>
+          <t>1972.12 최고인민회의 제5기 대의원, ‘영웅’ 칭호</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>493</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>1980. 5 백두산창작단 단장, 김일성훈장 수훈</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>691</t>
+          <t>1974. 9 ‘노력영웅’ 칭호</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>550</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>1982. 4 국가 부주석, 중앙인민위 위원, 김일성훈장 수훈</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>773</t>
+          <t>1975. 2 ‘영웅’ 칭호</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>564</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>1982. 4 김일성훈장 수훈</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>775</t>
+          <t>1976. 1 ‘영웅’ 칭호</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>590</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>1982. 4 김일성훈장 수훈, 중앙인민위 위원</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>776</t>
+          <t>1979. 5 노력훈장 수훈</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>673</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>1982. 4 정무원 부총리, 김일성훈장 수훈</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>778</t>
+          <t>1980. 2 ‘인민예술가’ 칭호, 피바다극단 총장</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>690</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>1982. 4 국가주석, 중앙인민위 수위, 국방위 위원장, ‘영웅’칭호</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>780</t>
+          <t>1980. 5 백두산창작단 단장, 김일성훈장 수훈</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>697</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>1982. 4 김일성훈장 수훈</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>782</t>
+          <t>1982. 4 국가 부주석, 중앙인민위 위원, 김일성훈장 수훈</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>779</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>1982. 4 최고인민회의 상설회의 의원, 김일성훈장 수훈</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>785</t>
+          <t>1982. 4 김일성훈장 수훈</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>781</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>1983. 4 ‘인민기자’ 칭호</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>826</t>
+          <t>1982. 4 김일성훈장 수훈, 중앙인민위 위원</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>782</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>1985. 4 김일성훈장 수훈</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>909</t>
+          <t>1982. 4 정무원 부총리, 김일성훈장 수훈</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>784</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>1986. 6 ‘노력영웅’ 칭호, 국기훈장 제1급(남포갑문 건설 공로)</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>993</t>
+          <t>1982. 4 국가주석, 중앙인민위 수위, 국방위 위원장, ‘영웅’칭호</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>786</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>1986. 7 ‘노력영웅’ 칭호, 국기훈장 1급 수훈</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>998</t>
+          <t>1982. 4 김일성훈장 수훈</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>788</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>1987. 4 김일성훈장 수훈</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>1054</t>
+          <t>1982. 4 최고인민회의 상설회의 의원, 김일성훈장 수훈</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>791</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>1987. 4 김일성훈장 수훈</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>1056</t>
+          <t>1983. 4 ‘인민기자’ 칭호</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr"/>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>832</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>1988.10 ‘영웅’ 칭호</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>1118</t>
+          <t>1985. 4 김일성훈장 수훈</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr"/>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>915</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>1988.10 김일성청년영예상 수훈</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>1121</t>
+          <t>1986. 6 ‘노력영웅’ 칭호, 국기훈장 제1급(남포갑문 건설 공로)</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr"/>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>999</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>1989. 4 ‘노력영웅’ 칭호</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>1162</t>
+          <t>1986. 7 ‘노력영웅’ 칭호, 국기훈장 1급 수훈</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr"/>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>1004</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>1991. 1 국가훈장 1급(칠순기념) 수훈</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>1315</t>
+          <t>1987. 4 김일성훈장 수훈</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr"/>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>1060</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>1992. 4 ‘2중영웅’ 칭호</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>1399</t>
+          <t>1987. 4 김일성훈장 수훈</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr"/>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>1062</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>1992. 4 ‘영웅’ 칭호</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>1400</t>
+          <t>1988.10 ‘영웅’ 칭호</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr"/>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>1124</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>1992. 4 김일성훈장 수훈</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>1401</t>
+          <t>1988.10 김일성청년영예상 수훈</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr"/>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>1127</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>1992. 4 인민군 대장, 김일성훈장 수훈</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>1403</t>
+          <t>1989. 4 ‘노력영웅’ 칭호</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr"/>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>1168</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>1992. 4 인민군 원수, ‘2중영웅’ 칭호</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>1404</t>
+          <t>1991. 1 국가훈장 1급(칠순기념) 수훈</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr"/>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>1321</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>1992. 4 인민군 차수, ‘2중영웅’ 칭호</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
+          <t>1992. 4 ‘2중영웅’ 칭호</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr"/>
+      <c r="C40" t="inlineStr">
         <is>
           <t>1405</t>
         </is>
@@ -916,10 +984,11 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>1992. 4 조선국제합영총회사 이사장, 김일성훈장 수훈</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
+          <t>1992. 4 ‘영웅’ 칭호</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr"/>
+      <c r="C41" t="inlineStr">
         <is>
           <t>1406</t>
         </is>
@@ -928,10 +997,11 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>1992. 4 최고인민회의 법제위원장, 김일성훈장 수훈</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
+          <t>1992. 4 김일성훈장 수훈</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr"/>
+      <c r="C42" t="inlineStr">
         <is>
           <t>1407</t>
         </is>
@@ -940,10 +1010,11 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>1992. 4 ‘2중영웅’ 칭호</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
+          <t>1992. 4 인민군 대장, 김일성훈장 수훈</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr"/>
+      <c r="C43" t="inlineStr">
         <is>
           <t>1409</t>
         </is>
@@ -952,10 +1023,11 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>1992. 4 ‘대원수’ 칭호</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
+          <t>1992. 4 인민군 원수, ‘2중영웅’ 칭호</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr"/>
+      <c r="C44" t="inlineStr">
         <is>
           <t>1410</t>
         </is>
@@ -964,10 +1036,11 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>1992. 4 ‘영웅’ 칭호</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
+          <t>1992. 4 인민군 차수, ‘2중영웅’ 칭호</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr"/>
+      <c r="C45" t="inlineStr">
         <is>
           <t>1411</t>
         </is>
@@ -976,10 +1049,11 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>1992. 4 ‘영웅’ 칭호, 금별메달·국기훈장 제1급 수훈</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
+          <t>1992. 4 조선국제합영총회사 이사장, 김일성훈장 수훈</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr"/>
+      <c r="C46" t="inlineStr">
         <is>
           <t>1412</t>
         </is>
@@ -988,22 +1062,24 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>1992. 4 김일성훈장 수훈</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>1414</t>
+          <t>1992. 4 최고인민회의 법제위원장, 김일성훈장 수훈</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr"/>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>1413</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>1992. 4 북-기니 친선협회 위원장, 김일성훈장 수훈</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
+          <t>1992. 4 ‘2중영웅’ 칭호</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr"/>
+      <c r="C48" t="inlineStr">
         <is>
           <t>1415</t>
         </is>
@@ -1012,1200 +1088,2167 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>1992. 4 인민군 대장, ‘2중영웅’ 칭호</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>1418</t>
+          <t>1992. 4 ‘대원수’ 칭호</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr"/>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>1416</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>1992. 4 인민군 대장, 김일성훈장 수훈</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>1419</t>
+          <t>1992. 4 ‘영웅’ 칭호</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr"/>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>1417</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>1992. 4 인민군 차수, ‘2중영웅’ 칭호</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>1425</t>
+          <t>1992. 4 ‘영웅’ 칭호, 금별메달·국기훈장 제1급 수훈</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr"/>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>1418</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>1992. 4 중앙인민위원회 위원, 김일성훈장 수훈</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>1427</t>
+          <t>1992. 4 김일성훈장 수훈</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr"/>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>1420</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>1992. 4 최고인민회의 외교위 위원장, 김일성훈장 수훈</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>1428</t>
+          <t>1992. 4 북-기니 친선협회 위원장, 김일성훈장 수훈</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr"/>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>1421</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>1993. 4 ‘공화국영웅’ 칭호</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>1497</t>
+          <t>1992. 4 인민군 대장, ‘2중영웅’ 칭호</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr"/>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>1424</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>1993. 9 김일성훈장 수훈</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>1517</t>
+          <t>1992. 4 인민군 대장, 김일성훈장 수훈</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr"/>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>1425</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>1994. 4 김일성훈장 수훈</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>1564</t>
+          <t>1992. 4 인민군 차수, ‘2중영웅’ 칭호</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr"/>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>1431</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>1995.10 ‘노력영웅’ 칭호</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>1648</t>
+          <t>1992. 4 중앙인민위원회 위원, 김일성훈장 수훈</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr"/>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>1433</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>1995.10 ‘영웅’ 칭호, 국기훈장 제1급 수훈</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>1649</t>
+          <t>1992. 4 최고인민회의 외교위 위원장, 김일성훈장 수훈</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr"/>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>1434</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>1995.10 김일성훈장 수훈</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>1653</t>
+          <t>1993. 4 ‘공화국영웅’ 칭호</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr"/>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>1503</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>1996.10 ‘영웅’ 칭호</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>1711</t>
+          <t>1993. 9 김일성훈장 수훈</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr"/>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>1523</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>1997. 4 ‘노력영웅’ 칭호, 국가훈장 1급 수훈</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>1738</t>
+          <t>1994. 4 김일성훈장 수훈</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr"/>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>1570</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>1997. 4 ‘노력영웅’ 칭호, 국기훈장 1급 수훈</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>1741</t>
+          <t>1995.10 ‘노력영웅’ 칭호</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr"/>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>1654</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>1997. 8 김일성훈장 수훈</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>1763</t>
+          <t>1995.10 ‘영웅’ 칭호, 국기훈장 제1급 수훈</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr"/>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>1655</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>1997. 9 국가훈장 제1급 수훈</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>1772</t>
+          <t>1995.10 김일성훈장 수훈</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr"/>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>1659</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>1998. 2 ‘노력영웅’ 칭호</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>1800</t>
+          <t>1996.10 ‘영웅’ 칭호</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr"/>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>1717</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>1998. 4  ‘노력영웅’ 칭호</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>1810</t>
+          <t>1997. 4 ‘노력영웅’ 칭호, 국가훈장 1급 수훈</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr"/>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>1744</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>2000. 2 ''공화국영웅'' 칭호, 금별메달 및 국기훈장1급 수훈</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>2014</t>
+          <t>1997. 4 ‘노력영웅’ 칭호, 국기훈장 1급 수훈</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr"/>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>1747</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2000. 4 공화국 영웅 칭호</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>2022</t>
+          <t>1997. 8 김일성훈장 수훈</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr"/>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>1769</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>2001. 5 사망 2009. 3 ‘영웅’ 칭호, 금별메달, 국기훈장 제1급 수훈 (최고인민회의 상임위 정령 제3107호)</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>2104</t>
+          <t>1997. 9 국가훈장 제1급 수훈</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr"/>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>1778</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>2002. 3 김일성훈장 수훈</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>2165</t>
+          <t>1998. 2 ‘노력영웅’ 칭호</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr"/>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>1806</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>2002. 3 김일성훈장 수훈</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>2166</t>
+          <t>1998. 4  ‘노력영웅’ 칭호</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr"/>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>1816</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>2002. 4 김일성 훈장 수훈</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>2171</t>
+          <t>2000. 2 ''공화국영웅'' 칭호, 금별메달 및 국기훈장1급 수훈</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr"/>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>2021</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>2002. 4 김일성훈장 수훈</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>2172</t>
+          <t>2000. 4 공화국 영웅 칭호</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr"/>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>2029</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2003. 4 김일성훈장 수훈</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>2249</t>
+          <t>2001. 5 사망 2009. 3 ‘영웅’ 칭호, 금별메달, 국기훈장 제1급 수훈 (최고인민회의 상임위 정령 제3107호)</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr"/>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>2111</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>2004. 4 김일성훈장 수훈</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>2404</t>
+          <t>2002. 3 김일성훈장 수훈</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr"/>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>2172</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>2004. 7 김일성훈장 수훈</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>2419</t>
+          <t>2002. 3 김일성훈장 수훈</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr"/>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>2173</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>2005. 4 러시아 조국전쟁승리 60돌 기념메달 수훈</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>2480</t>
+          <t>2002. 4 김일성 훈장 수훈</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr"/>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>2178</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>2005. 4 러시아의 조국전쟁승리 60돌 기념메달 수훈</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>2481</t>
+          <t>2002. 4 김일성훈장 수훈</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr"/>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>2179</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>2005. 4 김일성훈장 수훈</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>2485</t>
+          <t>2003. 4 김일성훈장 수훈</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr"/>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>2256</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>2005. 4 러시아 푸틴 대통령이 항일빨치산에게 수여하는 기념메달 수훈</t>
-        </is>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>2486</t>
+          <t>2004. 4 김일성훈장 수훈</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr"/>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>2411</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>2005. 4 러시아의 조국전쟁승리 60돌 기념메달 수훈</t>
-        </is>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>2487</t>
+          <t>2004. 7 김일성훈장 수훈</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr"/>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>2426</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>2005. 4 제2차 세계대전 승전 60주년 기념메달 수훈</t>
-        </is>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>2490</t>
+          <t>2005. 4 러시아 조국전쟁승리 60돌 기념메달 수훈</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr"/>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>2487</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>2007. 3 김일성훈장 수훈</t>
-        </is>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>2688</t>
+          <t>2005. 4 러시아의 조국전쟁승리 60돌 기념메달 수훈</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr"/>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>2488</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>2007. 3 김일성훈장 수훈</t>
-        </is>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>2690</t>
+          <t>2005. 4 김일성훈장 수훈</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr"/>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>2492</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>2009. 7 ‘원사’ 칭호</t>
-        </is>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>2941</t>
+          <t>2005. 4 러시아 푸틴 대통령이 항일빨치산에게 수여하는 기념메달 수훈</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr"/>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>2493</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>2009.10 공화국 영웅 칭호</t>
-        </is>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>2967</t>
+          <t>2005. 4 러시아의 조국전쟁승리 60돌 기념메달 수훈</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr"/>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>2494</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>2010. 5 러시아의 조국전쟁승리 61돌 기념메달 수훈</t>
-        </is>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>3040</t>
+          <t>2005. 4 제2차 세계대전 승전 60주년 기념메달 수훈</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr"/>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>2497</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>2011. 4 김일성훈장 수훈</t>
-        </is>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>3192</t>
+          <t>2007. 3 김일성훈장 수훈</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr"/>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>2695</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>2011. 7 김일성훈장 수훈</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>3214</t>
+          <t>2007. 3 김일성훈장 수훈</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr"/>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>2697</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>2011.10 ‘노력영웅’ 칭호</t>
-        </is>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>3225</t>
+          <t>2009. 7 ‘원사’ 칭호</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr"/>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>2948</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>2012. 2 김정일훈장 수훈</t>
-        </is>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>3262</t>
+          <t>2009.10 공화국 영웅 칭호</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr"/>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>2974</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>2012. 4 김정일훈장 수훈</t>
-        </is>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>3286</t>
+          <t>2010. 5 러시아의 조국전쟁승리 61돌 기념메달 수훈</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr"/>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>3047</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>&lt;2중영웅&gt; 칭호 수여</t>
-        </is>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>3422</t>
+          <t>2011. 4 김일성훈장 수훈</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr"/>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>3199</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>&lt;국기훈장 제1급&gt; 수훈</t>
-        </is>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>3423</t>
+          <t>2011. 7 김일성훈장 수훈</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr"/>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>3221</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>&lt;김일성 훈장&gt; 수훈</t>
-        </is>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>3424</t>
+          <t>2011.10 ‘노력영웅’ 칭호</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr"/>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>3232</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>&lt;김정일 표창&gt; 수훈</t>
-        </is>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>3425</t>
+          <t>2012. 2 김정일훈장 수훈</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr"/>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>3269</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>&lt;영웅&gt; 칭호 수여</t>
-        </is>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>3426</t>
+          <t>2012. 4 김정일훈장 수훈</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr"/>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>3293</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>&lt;영웅&gt;칭호</t>
+          <t>&lt;2중영웅&gt; 칭호 수여</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>3427</t>
+          <t>1992.04</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>3433</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>&lt;인민기자&gt; 칭호 수여</t>
+          <t>&lt;국기훈장 제1급&gt; 수훈</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>3428</t>
+          <t>1995.10</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>3434</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>‘2중영웅’ 칭호</t>
+          <t>&lt;김일성 훈장&gt; 수훈</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>3444</t>
+          <t>1992.04</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>3435</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>‘공화국영웅’ 칭호, 금별메달 및 국기훈장1급 수훈</t>
+          <t>&lt;김일성 훈장&gt; 수훈</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>3445</t>
+          <t>2002.04</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>3436</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>‘공훈예술가’ 칭호</t>
+          <t>&lt;김일성 훈장&gt; 수훈</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>3446</t>
+          <t>2002.03</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>3437</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>‘노력영웅’ 칭호</t>
+          <t>&lt;김일성 훈장&gt; 수훈</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>3449</t>
+          <t>2004.04</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>3438</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>‘노력영웅’ 칭호, 국가훈장 1급 수훈</t>
+          <t>&lt;김일성 훈장&gt; 수훈</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>3450</t>
+          <t>2007.03</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>3439</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>‘노력영웅’ 칭호, 국기훈장 1급 수훈</t>
+          <t>&lt;김일성 훈장&gt; 수훈</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>3451</t>
+          <t>1982.04</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>3440</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>‘대원수’ 칭호</t>
+          <t>&lt;김일성 훈장&gt; 수훈</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>3452</t>
+          <t>2003.04</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>3441</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>‘영웅’ 칭호</t>
+          <t>&lt;김일성 훈장&gt; 수훈</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>3454</t>
+          <t>2005.04</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>3442</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>‘영웅’ 칭호, 금별메달, 국기훈장 제1급 수훈</t>
+          <t>&lt;김일성 훈장&gt; 수훈</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>3455</t>
+          <t>1994.04</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>3443</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>‘영웅’ 칭호, 금별메달·국기훈장 제1급 수훈</t>
+          <t>&lt;김정일 표창&gt; 수훈</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>3456</t>
+          <t>1985.10</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>3444</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>‘원사’ 칭호 수여</t>
+          <t>&lt;영웅&gt; 칭호 수여</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>3457</t>
+          <t>1995.10</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>3445</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>‘원수’ 칭호</t>
+          <t>&lt;영웅&gt;칭호</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>3458</t>
+          <t>1976.01</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>3446</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>‘인민예술가’ 칭호, 피바다극단 총장</t>
+          <t>&lt;인민기자&gt; 칭호 수여</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>3459</t>
+          <t>1983.04</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>3447</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>공화국 영웅 칭호</t>
+          <t>‘2중영웅’ 칭호</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>3583</t>
+          <t>1992.04</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>3463</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>공화국영웅 칭호 수여</t>
+          <t>‘공화국영웅’ 칭호, 금별메달 및 국기훈장1급 수훈</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>3585</t>
+          <t>2000.02</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>3464</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>공화국영웅 칭호, 금별메달, 국기훈장1급 수여</t>
+          <t>‘공훈예술가’ 칭호</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>3586</t>
+          <t>1957</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>3465</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>공화국영웅칭호 수여</t>
+          <t>‘노력영웅’ 칭호</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>3587</t>
+          <t>1974.09</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>3468</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>국가 부주석, 중앙인민위원회 위원, 김일성훈장 수훈</t>
+          <t>‘노력영웅’ 칭호</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>3627</t>
+          <t>2011.10</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>3469</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>국가주석(유임), 중앙인민위원회 수위, 국방위원회 위원장, ‘영웅’ 칭호</t>
+          <t>‘노력영웅’ 칭호</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>3690</t>
+          <t>1998.02</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>3470</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>국가훈장 1급(칠순기념) 수훈</t>
+          <t>‘노력영웅’ 칭호</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>3715</t>
+          <t>1995.10</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>3471</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>국기훈장 제1급 수훈</t>
+          <t>‘노력영웅’ 칭호</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>3716</t>
+          <t>1989.04</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>3472</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>군 대장, 김일성훈장 수훈</t>
+          <t>‘노력영웅’ 칭호</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>3820</t>
+          <t>1998.04</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>3473</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>군 대장, 김정일훈장 수훈</t>
+          <t>‘노력영웅’ 칭호, 국가훈장 1급 수훈</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>3821</t>
+          <t>1997.04</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>3474</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>군 원수, ‘2중영웅’ 칭호</t>
+          <t>‘노력영웅’ 칭호, 국기훈장 1급 수훈</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>3854</t>
+          <t>1997.04</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>3475</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>군 중장, ‘영웅’ 칭호</t>
+          <t>‘노력영웅’ 칭호, 국기훈장 1급 수훈</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>3875</t>
+          <t>1986.07</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>3476</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>군 차수, ‘2중영웅’ 칭호</t>
+          <t>‘대원수’ 칭호</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>3889</t>
+          <t>1992.04</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>3477</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>김일성청년영예상 수훈</t>
+          <t>‘영웅’ 칭호</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>4063</t>
+          <t>1975.02</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>3479</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>김일성훈장 수훈</t>
+          <t>‘영웅’ 칭호</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>4066</t>
+          <t>1988.10</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>3480</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>김일성훈장 수훈, 중앙인민위원회 위원</t>
+          <t>‘영웅’ 칭호</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>4067</t>
+          <t>1968.02</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>3481</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>김정일 훈장 수훈</t>
+          <t>‘영웅’ 칭호</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>4076</t>
+          <t>1992.04</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>3482</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>김정일훈장 수훈</t>
+          <t>‘영웅’ 칭호</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>4078</t>
+          <t>1968.09</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>3483</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>노력영웅 칭호</t>
+          <t>‘영웅’ 칭호</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>4267</t>
+          <t>1953.08</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>3484</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>노력영웅 칭호 및 국기훈장 제1급 수상</t>
+          <t>‘영웅’ 칭호, 금별메달, 국기훈장 제1급 수훈</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>4268</t>
+          <t>2009.03</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>3485</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>노력영웅 칭호 수여</t>
+          <t>‘영웅’ 칭호, 금별메달·국기훈장 제1급 수훈</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>4269</t>
+          <t>1992.04</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>3486</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>노력영웅칭호, 금메달(마치와 낫) 및 국기훈장 제1급</t>
+          <t>‘원사’ 칭호 수여</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>4270</t>
+          <t>2009.07</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>3487</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>노력훈장 수훈</t>
+          <t>‘원수’ 칭호</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>4271</t>
+          <t>1953.02</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>3488</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>러시아 조국전쟁승리 60주년 기념메달 수훈</t>
+          <t>‘인민예술가’ 칭호, 피바다극단 총장</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>4745</t>
+          <t>1980.02</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>3489</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>러시아의 조국전쟁승리 60주년 기념메달 수훈</t>
+          <t>공화국 영웅 칭호</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>4752</t>
+          <t>2000.04</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>3632</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>러시아의 조국전쟁승리 61주년 기념메달 수훈</t>
+          <t>공화국영웅 칭호 수여</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>4753</t>
+          <t>1993.04</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>3634</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>백두산창작단 단장, 김일성훈장 수훈</t>
+          <t>공화국영웅 칭호, 금별메달, 국기훈장1급 수여</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>4872</t>
+          <t>2012.12</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>3635</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>블라디미르 푸틴 러 대통령이 항일빨치산에게 수여하는 기념메달 수훈</t>
+          <t>공화국영웅칭호 수여</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>4975</t>
+          <t>2009.10</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>3636</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>정무원 부총리, 김일성훈장 수훈</t>
+          <t>국가 부주석, 중앙인민위원회 위원, 김일성훈장 수훈</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>5725</t>
+          <t>1982.04</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>3681</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>제2차 세계대전 승전 60주년 기념메달 수훈</t>
+          <t>국가주석(유임), 중앙인민위원회 수위, 국방위원회 위원장, ‘영웅’ 칭호</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>5818</t>
+          <t>1982.04</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>3760</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>조선국제합영총회사 이사장, 김일성훈장 수훈</t>
+          <t>국가훈장 1급(칠순기념) 수훈</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>6026</t>
+          <t>1991.01</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>3790</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>최고인민회의 법제위원장, 김일성훈장 수훈</t>
+          <t>국기훈장 제1급 수훈</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>6486</t>
+          <t>1958.09</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>3791</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>최고인민회의 상설회의 의원, 김일성훈장 수훈</t>
+          <t>군 대장, 김일성훈장 수훈</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>6507</t>
+          <t>1992.04</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>3955</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>최고인민회의 외교위원회 위원장, 김일성훈장 수훈</t>
+          <t>군 대장, 김정일훈장 수훈</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>6551</t>
+          <t>2012.02</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>3956</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>최고인민회의 제5기 대의원, ‘영웅’ 칭호</t>
+          <t>군 원수, ‘2중영웅’ 칭호</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>6653</t>
+          <t>1992.04</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>4050</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
+          <t>군 중장, ‘영웅’ 칭호</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>1970.10</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>4097</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>군 차수, ‘2중영웅’ 칭호</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>1992.04</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>4120</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>김일성청년영예상 수훈</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>1988.10</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>4316</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>김일성훈장 수훈</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>2003.04</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>4319</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>김일성훈장 수훈</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>2005.04</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>4320</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>김일성훈장 수훈</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>1992.04</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>4321</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>김일성훈장 수훈</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>1995.10</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>4322</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>김일성훈장 수훈</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>1982.04</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>4323</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>김일성훈장 수훈</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>2007.03</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>4324</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>김일성훈장 수훈</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>2002.04</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>4325</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>김일성훈장 수훈</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>2004.04</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>4326</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>김일성훈장 수훈</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>1994.04</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>4327</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>김일성훈장 수훈</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>2002.03</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>4328</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>김일성훈장 수훈</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>1985.04</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>4329</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>김일성훈장 수훈</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>2011.07</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>4330</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>김일성훈장 수훈</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>2011.04</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>4331</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>김일성훈장 수훈</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>1987.04</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>4332</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>김일성훈장 수훈</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>1993.09</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>4333</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>김일성훈장 수훈, 중앙인민위원회 위원</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>1982.04</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>4334</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>김정일 훈장 수훈</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>2012.02</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>4343</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>김정일훈장 수훈</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>2012.02</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>4345</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>김정일훈장 수훈</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>2012.04</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>4346</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>노력영웅 칭호</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>2011.10</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>4580</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>노력영웅 칭호 및 국기훈장 제1급 수상</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>2014.03</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>4581</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>노력영웅 칭호 수여</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>2009.03</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>4582</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>노력영웅칭호, 금메달(마치와 낫) 및 국기훈장 제1급</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>2020.02</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>4583</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>노력훈장 수훈</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>1979.05</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>4584</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>러시아 조국전쟁승리 60주년 기념메달 수훈</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>2005.04</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>5293</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>러시아의 조국전쟁승리 60주년 기념메달 수훈</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>2005.04</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>5300</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>러시아의 조국전쟁승리 61주년 기념메달 수훈</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>2010.05</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>5301</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>백두산창작단 단장, 김일성훈장 수훈</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>1980.05</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>5439</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>블라디미르 푸틴 러 대통령이 항일빨치산에게 수여하는 기념메달 수훈</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>2005.04</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>5548</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>정무원 부총리, 김일성훈장 수훈</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>1982.04</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>6475</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>제2차 세계대전 승전 60주년 기념메달 수훈</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>2005.04</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>6580</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>조선국제합영총회사 이사장, 김일성훈장 수훈</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>1992.04</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>6838</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>최고인민회의 법제위원장, 김일성훈장 수훈</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>1992.04</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>7401</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>최고인민회의 상설회의 의원, 김일성훈장 수훈</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>1982.04</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>7435</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>최고인민회의 외교위원회 위원장, 김일성훈장 수훈</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>1992.04</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>7523</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>최고인민회의 제5기 대의원, ‘영웅’ 칭호</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>1972.12</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>7650</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
           <t>후보원사 칭호 수여</t>
         </is>
       </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>7003</t>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>2017.07</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>8021</t>
         </is>
       </c>
     </row>
